--- a/benchmarks/benchmark.xlsx
+++ b/benchmarks/benchmark.xlsx
@@ -106,7 +106,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -480,15 +480,15 @@
   </cellStyleXfs>
   <cellXfs count="46">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -610,10 +610,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,26 +942,26 @@
     <col min="15" max="15" style="45" width="16.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="27.649999999999995">
-      <c r="A1" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="27.649999999999995" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.7" customFormat="1" s="3">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.7" customFormat="1" s="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -978,7 +978,7 @@
       <c r="N2" s="6"/>
       <c r="O2" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13" t="s">
@@ -1001,7 +1001,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18" t="s">
@@ -1024,7 +1024,7 @@
       <c r="N4" s="20"/>
       <c r="O4" s="22"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18" customFormat="1" s="1">
       <c r="A5" s="16"/>
       <c r="B5" s="23" t="s">
         <v>7</v>
@@ -1069,7 +1069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="28.5" customFormat="1" s="1">
       <c r="A6" s="16"/>
       <c r="B6" s="27" t="s">
         <v>17</v>
@@ -1114,26 +1114,44 @@
         <v>119</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="28.5" customFormat="1" s="1">
       <c r="A7" s="16"/>
       <c r="B7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="19"/>
+      <c r="C7" s="32">
+        <v>1210</v>
+      </c>
+      <c r="D7" s="19">
+        <v>4276</v>
+      </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="21"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="3">
+      <c r="I7" s="32">
+        <v>1034</v>
+      </c>
+      <c r="J7" s="21">
+        <v>4462</v>
+      </c>
+      <c r="K7" s="32">
+        <v>1585</v>
+      </c>
+      <c r="L7" s="19">
+        <v>291</v>
+      </c>
+      <c r="M7" s="19">
+        <v>879</v>
+      </c>
+      <c r="N7" s="19">
+        <v>267</v>
+      </c>
+      <c r="O7" s="21">
+        <v>148</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="28.5" customFormat="1" s="1">
       <c r="A8" s="16"/>
       <c r="B8" s="31" t="s">
         <v>19</v>
@@ -1178,7 +1196,7 @@
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A9" s="16"/>
       <c r="B9" s="23" t="s">
         <v>20</v>
@@ -1215,7 +1233,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A10" s="39"/>
       <c r="B10" s="40"/>
       <c r="C10" s="14"/>
@@ -1232,7 +1250,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A11" s="39"/>
       <c r="B11" s="41"/>
       <c r="C11" s="19"/>
@@ -1249,7 +1267,7 @@
       <c r="N11" s="19"/>
       <c r="O11" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A12" s="39"/>
       <c r="B12" s="41"/>
       <c r="C12" s="19"/>
@@ -1266,7 +1284,7 @@
       <c r="N12" s="19"/>
       <c r="O12" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A13" s="39"/>
       <c r="B13" s="41"/>
       <c r="C13" s="19"/>
@@ -1283,7 +1301,7 @@
       <c r="N13" s="19"/>
       <c r="O13" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A14" s="39"/>
       <c r="B14" s="41"/>
       <c r="C14" s="19"/>
@@ -1300,7 +1318,7 @@
       <c r="N14" s="19"/>
       <c r="O14" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A15" s="39"/>
       <c r="B15" s="41"/>
       <c r="C15" s="19"/>
@@ -1317,7 +1335,7 @@
       <c r="N15" s="19"/>
       <c r="O15" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A16" s="39"/>
       <c r="B16" s="41"/>
       <c r="C16" s="19"/>
@@ -1334,7 +1352,7 @@
       <c r="N16" s="19"/>
       <c r="O16" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A17" s="39"/>
       <c r="B17" s="41"/>
       <c r="C17" s="19"/>
@@ -1351,7 +1369,7 @@
       <c r="N17" s="19"/>
       <c r="O17" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A18" s="39"/>
       <c r="B18" s="41"/>
       <c r="C18" s="19"/>
@@ -1368,7 +1386,7 @@
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A19" s="39"/>
       <c r="B19" s="41"/>
       <c r="C19" s="19"/>
@@ -1385,7 +1403,7 @@
       <c r="N19" s="19"/>
       <c r="O19" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A20" s="39"/>
       <c r="B20" s="41"/>
       <c r="C20" s="19"/>
@@ -1402,7 +1420,7 @@
       <c r="N20" s="19"/>
       <c r="O20" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A21" s="39"/>
       <c r="B21" s="41"/>
       <c r="C21" s="19"/>
@@ -1419,7 +1437,7 @@
       <c r="N21" s="19"/>
       <c r="O21" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A22" s="39"/>
       <c r="B22" s="41"/>
       <c r="C22" s="19"/>
@@ -1436,7 +1454,7 @@
       <c r="N22" s="19"/>
       <c r="O22" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A23" s="42"/>
       <c r="B23" s="43"/>
       <c r="C23" s="37"/>

--- a/benchmarks/benchmark.xlsx
+++ b/benchmarks/benchmark.xlsx
@@ -1127,8 +1127,12 @@
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="19">
+        <v>8857</v>
+      </c>
+      <c r="H7" s="21">
+        <v>10330</v>
+      </c>
       <c r="I7" s="32">
         <v>1034</v>
       </c>

--- a/benchmarks/benchmark.xlsx
+++ b/benchmarks/benchmark.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet 1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -83,14 +84,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -120,16 +126,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000ff"/>
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -138,33 +146,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF00ff00"/>
-      </bottom>
-      <diagonal/>
+        <color rgb="FF00FF00"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </left>
       <right style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -172,11 +172,10 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -187,14 +186,13 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -202,7 +200,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -212,12 +209,11 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF00ff00"/>
+        <color rgb="FF00FF00"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFff0000"/>
-      </bottom>
-      <diagonal/>
+        <color rgb="FFFF0000"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
@@ -230,43 +226,40 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFff0000"/>
-      </bottom>
-      <diagonal/>
+        <color rgb="FFFF0000"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFff0000"/>
-      </bottom>
-      <diagonal/>
+        <color rgb="FFFF0000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </left>
       <right style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFff0000"/>
-      </bottom>
-      <diagonal/>
+        <color rgb="FFFF0000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -275,9 +268,8 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFff0000"/>
-      </bottom>
-      <diagonal/>
+        <color rgb="FFFF0000"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
@@ -287,57 +279,53 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFff0000"/>
-      </bottom>
-      <diagonal/>
+        <color rgb="FFFF0000"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFff0000"/>
-      </bottom>
-      <diagonal/>
+        <color rgb="FFFF0000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </left>
       <right style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFff0000"/>
-      </bottom>
-      <diagonal/>
+        <color rgb="FFFF0000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFff0000"/>
-      </bottom>
-      <diagonal/>
+        <color rgb="FFFF0000"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
@@ -347,283 +335,420 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </left>
       <right style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF00ff00"/>
+        <color rgb="FF00FF00"/>
       </right>
       <top style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFff0000"/>
-      </bottom>
-      <diagonal/>
+        <color rgb="FFFF0000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF00ff00"/>
+        <color rgb="FF00FF00"/>
       </left>
       <right style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFff0000"/>
-      </bottom>
-      <diagonal/>
+        <color rgb="FFFF0000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF00ff00"/>
+        <color rgb="FF00FF00"/>
       </left>
       <right style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFff0000"/>
-      </bottom>
-      <diagonal/>
+        <color rgb="FFFF0000"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF00ff00"/>
+        <color rgb="FF00FF00"/>
       </right>
       <top style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF00ff00"/>
+        <color rgb="FF00FF00"/>
       </left>
       <right style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFFF0000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="59">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -634,10 +759,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="5E5E5E"/>
@@ -913,36 +1038,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9e872c6e-2944-4ff4-a9d1-d215cd1331ee}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A3" ySplit="2" xSplit="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="44" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="44" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="45" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="45" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="45" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="45" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="45" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="45" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="45" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="45" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="45" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="45" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="45" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="45" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="45" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="16.285714285714285" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="16.285714285714285" style="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="27.649999999999995" customFormat="1" s="1">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="27.65" customHeight="1" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -961,7 +1075,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.7" customFormat="1" s="1">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="21.7" customHeight="1" thickBot="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -978,7 +1092,7 @@
       <c r="N2" s="6"/>
       <c r="O2" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13" t="s">
@@ -1001,7 +1115,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18" t="s">
@@ -1024,7 +1138,7 @@
       <c r="N4" s="20"/>
       <c r="O4" s="22"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18" customFormat="1" s="1">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="16"/>
       <c r="B5" s="23" t="s">
         <v>7</v>
@@ -1069,175 +1183,175 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="28.5" customFormat="1" s="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A6" s="46"/>
+      <c r="B6" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="48">
         <v>1327</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="49">
         <v>9144</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="49">
         <v>1754</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="49">
         <v>12085</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="49">
         <v>50279</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="50">
         <v>57591</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="48">
         <v>1521</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="50">
         <v>10865</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="48">
         <v>2621</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="49">
         <v>448</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="49">
         <v>1290</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="49">
         <v>764</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="50">
         <v>119</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="28.5" customFormat="1" s="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="31" t="s">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A7" s="46"/>
+      <c r="B7" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="52">
         <v>1210</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="53">
         <v>4276</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19">
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53">
         <v>8857</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="54">
         <v>10330</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="52">
         <v>1034</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="54">
         <v>4462</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="52">
         <v>1585</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="53">
         <v>291</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="53">
         <v>879</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="53">
         <v>267</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="54">
         <v>148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="28.5" customFormat="1" s="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="31" t="s">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="52">
         <v>790</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="54">
         <v>1826</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="52">
         <v>790</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="53">
         <v>1826</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="53">
         <v>7337</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="54">
         <v>7073</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="52">
         <v>826</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="54">
         <v>1396</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="52">
         <v>777</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="53">
         <v>220</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="53">
         <v>264</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="53">
         <v>187</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="54">
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="23" t="s">
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A9" s="46"/>
+      <c r="B9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="56">
         <v>889</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="57">
         <v>3026</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="36">
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="56">
         <v>877</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="58">
         <v>3290</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="56">
         <v>1704</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="57">
         <v>251</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="57">
         <v>521</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="57">
         <v>846</v>
       </c>
-      <c r="O9" s="38">
+      <c r="O9" s="58">
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A10" s="39"/>
       <c r="B10" s="40"/>
       <c r="C10" s="14"/>
@@ -1254,7 +1368,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="39"/>
       <c r="B11" s="41"/>
       <c r="C11" s="19"/>
@@ -1271,7 +1385,7 @@
       <c r="N11" s="19"/>
       <c r="O11" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A12" s="39"/>
       <c r="B12" s="41"/>
       <c r="C12" s="19"/>
@@ -1288,7 +1402,7 @@
       <c r="N12" s="19"/>
       <c r="O12" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A13" s="39"/>
       <c r="B13" s="41"/>
       <c r="C13" s="19"/>
@@ -1305,7 +1419,7 @@
       <c r="N13" s="19"/>
       <c r="O13" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A14" s="39"/>
       <c r="B14" s="41"/>
       <c r="C14" s="19"/>
@@ -1322,7 +1436,7 @@
       <c r="N14" s="19"/>
       <c r="O14" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A15" s="39"/>
       <c r="B15" s="41"/>
       <c r="C15" s="19"/>
@@ -1339,7 +1453,7 @@
       <c r="N15" s="19"/>
       <c r="O15" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A16" s="39"/>
       <c r="B16" s="41"/>
       <c r="C16" s="19"/>
@@ -1356,7 +1470,7 @@
       <c r="N16" s="19"/>
       <c r="O16" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="17" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A17" s="39"/>
       <c r="B17" s="41"/>
       <c r="C17" s="19"/>
@@ -1373,7 +1487,7 @@
       <c r="N17" s="19"/>
       <c r="O17" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="39"/>
       <c r="B18" s="41"/>
       <c r="C18" s="19"/>
@@ -1390,7 +1504,7 @@
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="19" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A19" s="39"/>
       <c r="B19" s="41"/>
       <c r="C19" s="19"/>
@@ -1407,7 +1521,7 @@
       <c r="N19" s="19"/>
       <c r="O19" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A20" s="39"/>
       <c r="B20" s="41"/>
       <c r="C20" s="19"/>
@@ -1424,7 +1538,7 @@
       <c r="N20" s="19"/>
       <c r="O20" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="21" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A21" s="39"/>
       <c r="B21" s="41"/>
       <c r="C21" s="19"/>
@@ -1441,7 +1555,7 @@
       <c r="N21" s="19"/>
       <c r="O21" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="22" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A22" s="39"/>
       <c r="B22" s="41"/>
       <c r="C22" s="19"/>
@@ -1458,7 +1572,7 @@
       <c r="N22" s="19"/>
       <c r="O22" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="23" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A23" s="42"/>
       <c r="B23" s="43"/>
       <c r="C23" s="37"/>
@@ -1486,5 +1600,6 @@
     <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>